--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/113.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/113.xlsx
@@ -479,13 +479,13 @@
         <v>-0.3237321157864806</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.773189090693431</v>
+        <v>-1.762109570098596</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05830099538357705</v>
+        <v>0.06695652653160954</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2487098602070008</v>
+        <v>-0.2623849383328612</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.3354219845853791</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.791526413456584</v>
+        <v>-1.766902458322956</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03677470988066885</v>
+        <v>0.05089995747522122</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2032742242515352</v>
+        <v>-0.2198722558856509</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.3561100859189276</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.853777295684905</v>
+        <v>-1.830478664651413</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06475762181915247</v>
+        <v>0.08731174180827003</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2397741536553768</v>
+        <v>-0.2548028882255557</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.3741342905040057</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.041240612003135</v>
+        <v>-2.008074455098209</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1383335716252318</v>
+        <v>0.1594679263669362</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2760678865543281</v>
+        <v>-0.2878494196772637</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.3801231079426144</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.979732666800068</v>
+        <v>-1.964437135988829</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3227928724504594</v>
+        <v>0.3336032357755526</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2926533260354734</v>
+        <v>-0.3088515568127788</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.3706118237933478</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.824114905343994</v>
+        <v>-1.832578406159228</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4423427727514893</v>
+        <v>0.4564066336003109</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2883279214901391</v>
+        <v>-0.3115840540073568</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.3500154927719096</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.559308224452851</v>
+        <v>-1.561599996293465</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6283461863347128</v>
+        <v>0.638434074883129</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.323803164446014</v>
+        <v>-0.3442418027361034</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.3242585808829773</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.084507717541181</v>
+        <v>-1.094261127026321</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7459883754607263</v>
+        <v>0.7423319290419448</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.320201808696478</v>
+        <v>-0.3346513042300184</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2967435851519111</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.5344336812011081</v>
+        <v>-0.5337426868068571</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7005055189316216</v>
+        <v>0.6977478374311028</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3080582511756432</v>
+        <v>-0.3186813062253016</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2657212485027834</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.05076278953134761</v>
+        <v>-0.04501761973860009</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6572939719945537</v>
+        <v>0.6561890105714007</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2725672680285554</v>
+        <v>-0.275151807425731</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.2232305869841971</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5599471854185915</v>
+        <v>0.585040198250367</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6364665509815031</v>
+        <v>0.6292276370426412</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2263194382064985</v>
+        <v>-0.2160647036312245</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.1599711312201014</v>
       </c>
       <c r="E13" t="n">
-        <v>1.184636024184802</v>
+        <v>1.209851810508039</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4297805261443885</v>
+        <v>0.4353132033557604</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.08872183466063499</v>
+        <v>-0.08722809051452064</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.06825300105887271</v>
       </c>
       <c r="E14" t="n">
-        <v>1.733435105036621</v>
+        <v>1.7779184594237</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1519740213304236</v>
+        <v>0.1708591027477892</v>
       </c>
       <c r="G14" t="n">
-        <v>0.003610126994863353</v>
+        <v>0.01986659647965686</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.05047945428488267</v>
       </c>
       <c r="E15" t="n">
-        <v>2.367106870928095</v>
+        <v>2.416902539849563</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.03371616244766116</v>
+        <v>-0.03010221454515478</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1433216382206337</v>
+        <v>0.155122059573025</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1887218346088335</v>
       </c>
       <c r="E16" t="n">
-        <v>2.843634863825392</v>
+        <v>2.895155657703806</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4061117723370696</v>
+        <v>-0.385792759500199</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3256985117483805</v>
+        <v>0.332213376891444</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.3425880982669663</v>
       </c>
       <c r="E17" t="n">
-        <v>3.376907820064702</v>
+        <v>3.419766786718598</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7180634739494103</v>
+        <v>-0.6958540641478576</v>
       </c>
       <c r="G17" t="n">
-        <v>0.490699788196089</v>
+        <v>0.4950503770473641</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.5109366617973515</v>
       </c>
       <c r="E18" t="n">
-        <v>3.862994831085659</v>
+        <v>3.901485894677946</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.051546970131584</v>
+        <v>-1.032752394813693</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5953547455522504</v>
+        <v>0.6068702694436863</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.6923578009267267</v>
       </c>
       <c r="E19" t="n">
-        <v>4.159944556452882</v>
+        <v>4.178513260026866</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.397741457727821</v>
+        <v>-1.399297375629227</v>
       </c>
       <c r="G19" t="n">
-        <v>0.80607655541638</v>
+        <v>0.8163690664505652</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.8802457656180147</v>
       </c>
       <c r="E20" t="n">
-        <v>4.42541075135585</v>
+        <v>4.434104058962794</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.710313322873954</v>
+        <v>-1.730520580353212</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9977527339127713</v>
+        <v>1.00648854003599</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.065341034967125</v>
       </c>
       <c r="E21" t="n">
-        <v>4.647279764637031</v>
+        <v>4.652864384479406</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.070511858592404</v>
+        <v>-2.098248436538404</v>
       </c>
       <c r="G21" t="n">
-        <v>1.194966311677898</v>
+        <v>1.210590025475929</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.239118480279906</v>
       </c>
       <c r="E22" t="n">
-        <v>4.762823786274351</v>
+        <v>4.747569966969825</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.323891947672464</v>
+        <v>-2.372370949598964</v>
       </c>
       <c r="G22" t="n">
-        <v>1.352923852557786</v>
+        <v>1.369536050363994</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.394404211688117</v>
       </c>
       <c r="E23" t="n">
-        <v>4.83215145847204</v>
+        <v>4.810472493114365</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.542898607181559</v>
+        <v>-2.583081741329245</v>
       </c>
       <c r="G23" t="n">
-        <v>1.459880025869289</v>
+        <v>1.48024783329892</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.528868996552469</v>
       </c>
       <c r="E24" t="n">
-        <v>4.847313984667529</v>
+        <v>4.824363211859843</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.685573996412739</v>
+        <v>-2.722206930432331</v>
       </c>
       <c r="G24" t="n">
-        <v>1.512022557300617</v>
+        <v>1.535952370001751</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.641042896617028</v>
       </c>
       <c r="E25" t="n">
-        <v>4.902514835251544</v>
+        <v>4.886267809881478</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.878697485491166</v>
+        <v>-2.912978047933974</v>
       </c>
       <c r="G25" t="n">
-        <v>1.615328580269824</v>
+        <v>1.640324003916079</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.728202759049674</v>
       </c>
       <c r="E26" t="n">
-        <v>4.977735635039383</v>
+        <v>4.968875481405581</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.012994370939662</v>
+        <v>-3.04712933661375</v>
       </c>
       <c r="G26" t="n">
-        <v>1.661003467131727</v>
+        <v>1.682844556458896</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.787980339911805</v>
       </c>
       <c r="E27" t="n">
-        <v>4.942450848397185</v>
+        <v>4.930540245706303</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.097935525811093</v>
+        <v>-3.115258393250568</v>
       </c>
       <c r="G27" t="n">
-        <v>1.677250492501793</v>
+        <v>1.698875941209343</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.817945270867984</v>
       </c>
       <c r="E28" t="n">
-        <v>4.949985677930852</v>
+        <v>4.944407354164962</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.131429865702811</v>
+        <v>-3.14090467380348</v>
       </c>
       <c r="G28" t="n">
-        <v>1.701967314763578</v>
+        <v>1.722745941183868</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.819804047591922</v>
       </c>
       <c r="E29" t="n">
-        <v>4.910240121098888</v>
+        <v>4.911842472564372</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.056185455628153</v>
+        <v>-3.061311248896669</v>
       </c>
       <c r="G29" t="n">
-        <v>1.646915995996086</v>
+        <v>1.662744332279886</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.796630956000158</v>
       </c>
       <c r="E30" t="n">
-        <v>4.802827482242208</v>
+        <v>4.81226844893177</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.0284819320837</v>
+        <v>-3.032002225848489</v>
       </c>
       <c r="G30" t="n">
-        <v>1.572534148399901</v>
+        <v>1.596419888565639</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.751761479884612</v>
       </c>
       <c r="E31" t="n">
-        <v>4.653100487347601</v>
+        <v>4.67055006332634</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.989317975317057</v>
+        <v>-2.988128016861354</v>
       </c>
       <c r="G31" t="n">
-        <v>1.509611160006785</v>
+        <v>1.537688513092546</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.690295447129705</v>
       </c>
       <c r="E32" t="n">
-        <v>4.651534338321907</v>
+        <v>4.662628025088834</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.882741927623348</v>
+        <v>-2.881773118854188</v>
       </c>
       <c r="G32" t="n">
-        <v>1.489383440278949</v>
+        <v>1.508174080549037</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.616072735101524</v>
       </c>
       <c r="E33" t="n">
-        <v>4.470855831426044</v>
+        <v>4.494702221113749</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.818477874938884</v>
+        <v>-2.806387834068173</v>
       </c>
       <c r="G33" t="n">
-        <v>1.401184852835987</v>
+        <v>1.42604491083781</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.534709302925657</v>
       </c>
       <c r="E34" t="n">
-        <v>4.335368987521845</v>
+        <v>4.368705138491872</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.72514719815092</v>
+        <v>-2.713182291800353</v>
       </c>
       <c r="G34" t="n">
-        <v>1.331115817632165</v>
+        <v>1.359980180278577</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.450307064523594</v>
       </c>
       <c r="E35" t="n">
-        <v>4.1310676016535</v>
+        <v>4.165908514903491</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.701809216639395</v>
+        <v>-2.69224232842013</v>
       </c>
       <c r="G35" t="n">
-        <v>1.256812670992045</v>
+        <v>1.282996479074882</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.36440104802891</v>
       </c>
       <c r="E36" t="n">
-        <v>3.918419192384899</v>
+        <v>3.945882678013353</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.630506937454034</v>
+        <v>-2.619435286954805</v>
       </c>
       <c r="G36" t="n">
-        <v>1.269316678891658</v>
+        <v>1.290770559514986</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.279578029265544</v>
       </c>
       <c r="E37" t="n">
-        <v>3.685827960849417</v>
+        <v>3.717522409875928</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.588731682965153</v>
+        <v>-2.563397058198258</v>
       </c>
       <c r="G37" t="n">
-        <v>1.16124137798491</v>
+        <v>1.18256461502117</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.195587033308296</v>
       </c>
       <c r="E38" t="n">
-        <v>3.461451535108004</v>
+        <v>3.498814026990319</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.50670325047769</v>
+        <v>-2.477892404481401</v>
       </c>
       <c r="G38" t="n">
-        <v>1.072205412369415</v>
+        <v>1.095175073406556</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.112908756055852</v>
       </c>
       <c r="E39" t="n">
-        <v>3.22671491551019</v>
+        <v>3.255209383663096</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.454965241960536</v>
+        <v>-2.425161976908268</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9896591275910431</v>
+        <v>1.014796212958215</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.030423867842928</v>
       </c>
       <c r="E40" t="n">
-        <v>3.000748730456263</v>
+        <v>3.040261332458274</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.411870959448005</v>
+        <v>-2.38377707916147</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9475966146125249</v>
+        <v>0.9684807003139424</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.9456222049928621</v>
       </c>
       <c r="E41" t="n">
-        <v>2.778772683874834</v>
+        <v>2.817414853302766</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.394167966390736</v>
+        <v>-2.368831767604719</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8997826357647738</v>
+        <v>0.9316518009137489</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.8588315383856359</v>
       </c>
       <c r="E42" t="n">
-        <v>2.486109012574912</v>
+        <v>2.537100936028569</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.373752151377905</v>
+        <v>-2.34218519790022</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8591272958806984</v>
+        <v>0.8829626674345546</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.7701960469279773</v>
       </c>
       <c r="E43" t="n">
-        <v>2.318411441372415</v>
+        <v>2.371100157438834</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.370083899815714</v>
+        <v>-2.340907094373724</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8065408910571638</v>
+        <v>0.8344891745749787</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.6818046216457577</v>
       </c>
       <c r="E44" t="n">
-        <v>2.112046516436046</v>
+        <v>2.159484304713806</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.302301914395143</v>
+        <v>-2.28599822433671</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7124208436798678</v>
+        <v>0.7383402165503262</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.5955489963692463</v>
       </c>
       <c r="E45" t="n">
-        <v>1.972838691329092</v>
+        <v>2.018179886137279</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.232398151199058</v>
+        <v>-2.210021108361087</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6489469485942962</v>
+        <v>0.6775830784681196</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.5118404684553199</v>
       </c>
       <c r="E46" t="n">
-        <v>1.80521982108266</v>
+        <v>1.858684528575881</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.171681150604444</v>
+        <v>-2.146892710472641</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6072763663769818</v>
+        <v>0.6310267408982879</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.4323320983605672</v>
       </c>
       <c r="E47" t="n">
-        <v>1.66100661516997</v>
+        <v>1.712358989002405</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.113081205727981</v>
+        <v>-2.095223171787264</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5456000011279357</v>
+        <v>0.5805038751427785</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.357658174882649</v>
       </c>
       <c r="E48" t="n">
-        <v>1.516149635436667</v>
+        <v>1.572074534816481</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.953116790468434</v>
+        <v>-1.934649611127774</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4151846468325672</v>
+        <v>0.4624382748731352</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2884442488314675</v>
       </c>
       <c r="E49" t="n">
-        <v>1.404155026917881</v>
+        <v>1.465903797046507</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.896538673153281</v>
+        <v>-1.870995490852813</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3563541081548327</v>
+        <v>0.4004329396277371</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.22527366509583</v>
       </c>
       <c r="E50" t="n">
-        <v>1.35135455549385</v>
+        <v>1.410627393544669</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.765620419748657</v>
+        <v>-1.74944422523905</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2878260376707646</v>
+        <v>0.3372832924811536</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1678629367467594</v>
       </c>
       <c r="E51" t="n">
-        <v>1.227672854999405</v>
+        <v>1.280931365987735</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.732464493968019</v>
+        <v>-1.704545329803948</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2415435794280392</v>
+        <v>0.2897195826736894</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1169468139273974</v>
       </c>
       <c r="E52" t="n">
-        <v>1.078016690965257</v>
+        <v>1.140639041706205</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.663722356883454</v>
+        <v>-1.642636009724949</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1868715992687811</v>
+        <v>0.2416647789003794</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.07160516302199296</v>
       </c>
       <c r="E53" t="n">
-        <v>1.041349915534558</v>
+        <v>1.104055689288935</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.64339940899878</v>
+        <v>-1.62164174268504</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1639932313406756</v>
+        <v>0.2152212576625278</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.0308829230884469</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9428682611721376</v>
+        <v>1.005382004593716</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.518748899735175</v>
+        <v>-1.491771786015203</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1306633764471336</v>
+        <v>0.1789228027062127</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.006115600814874889</v>
       </c>
       <c r="E55" t="n">
-        <v>0.8986823963989846</v>
+        <v>0.9506706739564251</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.46610110816591</v>
+        <v>-1.450764652857517</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1134042567820715</v>
+        <v>0.1594222798124184</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.04026522493709468</v>
       </c>
       <c r="E56" t="n">
-        <v>0.8184467716906821</v>
+        <v>0.8767201075994762</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.471641655472888</v>
+        <v>-1.456217055093702</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1229632749057306</v>
+        <v>0.1690757390833555</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.07178698410078257</v>
       </c>
       <c r="E57" t="n">
-        <v>0.7609572973042957</v>
+        <v>0.8327136810061515</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.47894038213836</v>
+        <v>-1.461674179387252</v>
       </c>
       <c r="G57" t="n">
-        <v>0.08208757234467305</v>
+        <v>0.1301722824812878</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1010427502508529</v>
       </c>
       <c r="E58" t="n">
-        <v>0.7143080926063073</v>
+        <v>0.7909439355841952</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.463553558218085</v>
+        <v>-1.454246383153834</v>
       </c>
       <c r="G58" t="n">
-        <v>0.07591269533181044</v>
+        <v>0.1202512399597295</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1288023278771933</v>
       </c>
       <c r="E59" t="n">
-        <v>0.6966271358167366</v>
+        <v>0.7635150783764094</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.468244922209121</v>
+        <v>-1.463042789013222</v>
       </c>
       <c r="G59" t="n">
-        <v>0.06615849883711009</v>
+        <v>0.108239900045084</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1556984389481568</v>
       </c>
       <c r="E60" t="n">
-        <v>0.6979257015918098</v>
+        <v>0.7579131443237003</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.509087570368632</v>
+        <v>-1.50407510647685</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0643593949814634</v>
+        <v>0.10714595675578</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1823633755168708</v>
       </c>
       <c r="E61" t="n">
-        <v>0.7324297747498422</v>
+        <v>0.7974745409184717</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.483475131226827</v>
+        <v>-1.488741012197138</v>
       </c>
       <c r="G61" t="n">
-        <v>0.08040809394224521</v>
+        <v>0.1127966854012495</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2089441714401724</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7180684242870946</v>
+        <v>0.7783265983078489</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.528611703549245</v>
+        <v>-1.52785538736146</v>
       </c>
       <c r="G62" t="n">
-        <v>0.07775901976109616</v>
+        <v>0.1209737147364065</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2351471017662459</v>
       </c>
       <c r="E63" t="n">
-        <v>0.6832243629988614</v>
+        <v>0.74664631545343</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.542394601984915</v>
+        <v>-1.558038778031522</v>
       </c>
       <c r="G63" t="n">
-        <v>0.06205188294963659</v>
+        <v>0.1029637879504841</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2600907682725945</v>
       </c>
       <c r="E64" t="n">
-        <v>0.656143364016883</v>
+        <v>0.7207930513860661</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.540115422297271</v>
+        <v>-1.547969777712562</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0412417761469202</v>
+        <v>0.0860981730657472</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.2827546811192492</v>
       </c>
       <c r="E65" t="n">
-        <v>0.6300917735402353</v>
+        <v>0.7001639567822994</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.602160895030263</v>
+        <v>-1.617511516510747</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01307312995212309</v>
+        <v>0.06328276590249372</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.3020388215988892</v>
       </c>
       <c r="E66" t="n">
-        <v>0.6025684751851714</v>
+        <v>0.664273172778401</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.624148368135712</v>
+        <v>-1.633462626286009</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.001741538017558985</v>
+        <v>0.04783691626517008</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.317571044817607</v>
       </c>
       <c r="E67" t="n">
-        <v>0.5691378830678662</v>
+        <v>0.6421330198181856</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.696965640725324</v>
+        <v>-1.708767636096837</v>
       </c>
       <c r="G67" t="n">
-        <v>0.005990043906269993</v>
+        <v>0.0485656871183323</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.3288364905282259</v>
       </c>
       <c r="E68" t="n">
-        <v>0.5762430053814175</v>
+        <v>0.6464615724017625</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.706491604447436</v>
+        <v>-1.726696500898012</v>
       </c>
       <c r="G68" t="n">
-        <v>0.001848799598127883</v>
+        <v>0.05088106924576561</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.3351849006039153</v>
       </c>
       <c r="E69" t="n">
-        <v>0.5601061613498428</v>
+        <v>0.638481295456768</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.763645812760985</v>
+        <v>-1.784204863513854</v>
       </c>
       <c r="G69" t="n">
-        <v>0.003959559239792106</v>
+        <v>0.06017565215704617</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.3362575619520068</v>
       </c>
       <c r="E70" t="n">
-        <v>0.488563844248484</v>
+        <v>0.5710455942428826</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.842720598367329</v>
+        <v>-1.8657996537334</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.003427312496472022</v>
+        <v>0.05000119255695853</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.3319697026708686</v>
       </c>
       <c r="E71" t="n">
-        <v>0.4010405110085592</v>
+        <v>0.484816104720667</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.887004052326002</v>
+        <v>-1.920967449915868</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.01255032732353081</v>
+        <v>0.03897991066961111</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.3228319177455486</v>
       </c>
       <c r="E72" t="n">
-        <v>0.3118943640545734</v>
+        <v>0.3936866936738424</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.931042746311314</v>
+        <v>-1.968528011685089</v>
       </c>
       <c r="G72" t="n">
-        <v>0.006998990163023733</v>
+        <v>0.05397716485736406</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3094432799249454</v>
       </c>
       <c r="E73" t="n">
-        <v>0.2596857238201509</v>
+        <v>0.3407996511981393</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.020084220993733</v>
+        <v>-2.060410590881456</v>
       </c>
       <c r="G73" t="n">
-        <v>0.004600185022161486</v>
+        <v>0.05103217508141047</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.2928384522430998</v>
       </c>
       <c r="E74" t="n">
-        <v>0.1379542330169984</v>
+        <v>0.2215645547213696</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.032552026453555</v>
+        <v>-2.073328565809971</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.03205242423644633</v>
+        <v>0.01695780914349319</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.2738860485071485</v>
       </c>
       <c r="E75" t="n">
-        <v>0.05769499802187628</v>
+        <v>0.1428935050196399</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.048428370320555</v>
+        <v>-2.094578610957091</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.02675270185502691</v>
+        <v>0.01884348405081141</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2527104309714002</v>
       </c>
       <c r="E76" t="n">
-        <v>0.02571879957265281</v>
+        <v>0.1096643873498611</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.113811550600264</v>
+        <v>-2.153957695298599</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.0395479032920802</v>
+        <v>0.008395145123617444</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2294901002247186</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.08707226262151187</v>
+        <v>-0.006573776719952097</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.099297520282751</v>
+        <v>-2.146426013803175</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.03031155908828777</v>
+        <v>0.01275990014698425</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.2045213791554295</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.1128200674077485</v>
+        <v>-0.02978426268265204</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.072075646589416</v>
+        <v>-2.129239299017693</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01358626018566711</v>
+        <v>0.04592920509015364</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.1778723585892504</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.1613250406497505</v>
+        <v>-0.08144671828198322</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.073991227860039</v>
+        <v>-2.140793386377601</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0119587244142422</v>
+        <v>0.0394253580809392</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.1496524217514837</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.1473272886040235</v>
+        <v>-0.06354225077718789</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.123099837435059</v>
+        <v>-2.189301507657845</v>
       </c>
       <c r="G80" t="n">
-        <v>0.04912131586815144</v>
+        <v>0.07561835375612722</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1201127369228647</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.1042306450628107</v>
+        <v>-0.04294463655584709</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.125608823914413</v>
+        <v>-2.191176951440875</v>
       </c>
       <c r="G81" t="n">
-        <v>0.04290708837725633</v>
+        <v>0.07027298482019008</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.090627140043108</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.01764700123830244</v>
+        <v>0.01887181639499482</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.062194741555451</v>
+        <v>-2.137967235045305</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01073413753787027</v>
+        <v>0.04152195155051172</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.06250750384666598</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1318533349028369</v>
+        <v>0.1502237120675372</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.026219747528563</v>
+        <v>-2.099228263441413</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04330059315758149</v>
+        <v>0.06759243025661502</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.03646979744191399</v>
       </c>
       <c r="E84" t="n">
-        <v>0.2006584327522539</v>
+        <v>0.220132197320986</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.933276279444439</v>
+        <v>-2.007711643690749</v>
       </c>
       <c r="G84" t="n">
-        <v>0.08485469795991965</v>
+        <v>0.1084618367411874</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.01303076930702615</v>
       </c>
       <c r="E85" t="n">
-        <v>0.3694861496838443</v>
+        <v>0.3705344464186306</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.780354812743153</v>
+        <v>-1.856645945533476</v>
       </c>
       <c r="G85" t="n">
-        <v>0.08452887600181042</v>
+        <v>0.09676530065080195</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.007368048438623924</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5781381244034635</v>
+        <v>0.5724511933182042</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.635566302841627</v>
+        <v>-1.713509368699755</v>
       </c>
       <c r="G86" t="n">
-        <v>0.1591861769442233</v>
+        <v>0.1716775926908656</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.02419167877140893</v>
       </c>
       <c r="E87" t="n">
-        <v>0.8339366938634022</v>
+        <v>0.8173449583057716</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.428619777839937</v>
+        <v>-1.50332508636555</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1601101261684268</v>
+        <v>0.1723528468939036</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.03736846368500438</v>
       </c>
       <c r="E88" t="n">
-        <v>1.0145364998032</v>
+        <v>0.9966761048338015</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.277951519510793</v>
+        <v>-1.341979469327062</v>
       </c>
       <c r="G88" t="n">
-        <v>0.1761714172821791</v>
+        <v>0.1875736117968812</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.04641273448210147</v>
       </c>
       <c r="E89" t="n">
-        <v>1.227186483090923</v>
+        <v>1.202236705999186</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.095550248686666</v>
+        <v>-1.154043947272442</v>
       </c>
       <c r="G89" t="n">
-        <v>0.2326991659854507</v>
+        <v>0.2376053835865449</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.05060990097139412</v>
       </c>
       <c r="E90" t="n">
-        <v>1.354842581866652</v>
+        <v>1.322527969306349</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.8504801935575126</v>
+        <v>-0.8976598426993794</v>
       </c>
       <c r="G90" t="n">
-        <v>0.2198189675158471</v>
+        <v>0.228408389860785</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.04961590088813893</v>
       </c>
       <c r="E91" t="n">
-        <v>1.500291392789563</v>
+        <v>1.472626432713582</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5677509439416798</v>
+        <v>-0.6042729096132197</v>
       </c>
       <c r="G91" t="n">
-        <v>0.142647958036717</v>
+        <v>0.1486622850992069</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.04354281182275254</v>
       </c>
       <c r="E92" t="n">
-        <v>1.528175141523405</v>
+        <v>1.504097371024868</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.3509408281163592</v>
+        <v>-0.3910672975756776</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1526917740497367</v>
+        <v>0.153593687006242</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.03232464425236856</v>
       </c>
       <c r="E93" t="n">
-        <v>1.581649293131353</v>
+        <v>1.552959646607405</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.1433796486478014</v>
+        <v>-0.1844883060388114</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1157369531198391</v>
+        <v>0.1232969669594463</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.01675822322819285</v>
       </c>
       <c r="E94" t="n">
-        <v>1.521919989535356</v>
+        <v>1.500782486755409</v>
       </c>
       <c r="F94" t="n">
-        <v>0.01956123677012452</v>
+        <v>-0.002572620113605749</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1012811615098136</v>
+        <v>0.1130737127665984</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.002097932329041645</v>
       </c>
       <c r="E95" t="n">
-        <v>1.511490538837618</v>
+        <v>1.50101386756624</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1748366490673161</v>
+        <v>0.1537290526506739</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04356660238908131</v>
+        <v>0.05598403923702244</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.02214878055245257</v>
       </c>
       <c r="E96" t="n">
-        <v>1.421939868969458</v>
+        <v>1.420819167355091</v>
       </c>
       <c r="F96" t="n">
-        <v>0.3036165974956531</v>
+        <v>0.2776972246251947</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02249655415102985</v>
+        <v>-0.0109212175329846</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.03962424470161936</v>
       </c>
       <c r="E97" t="n">
-        <v>1.389670902963672</v>
+        <v>1.377709931660908</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3234791447873465</v>
+        <v>0.3000703324153627</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.0317517865842779</v>
+        <v>-0.02689751161418658</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.05266461285185221</v>
       </c>
       <c r="E98" t="n">
-        <v>1.239281246018998</v>
+        <v>1.234107445167282</v>
       </c>
       <c r="F98" t="n">
-        <v>0.368055366302582</v>
+        <v>0.3459514157821564</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.09769846570941282</v>
+        <v>-0.09055714095607159</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.05982226047561727</v>
       </c>
       <c r="E99" t="n">
-        <v>1.156730239183262</v>
+        <v>1.150020195669157</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3801217968864731</v>
+        <v>0.3620866857946098</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1006135491220617</v>
+        <v>-0.09418682904979098</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.06631306032163262</v>
       </c>
       <c r="E100" t="n">
-        <v>1.052862291387751</v>
+        <v>1.04557615687525</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3904772686855103</v>
+        <v>0.3786563850845421</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1618853914569336</v>
+        <v>-0.1500723779515719</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.07415070160861585</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9537966759313282</v>
+        <v>0.9441668269472107</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3539238226315444</v>
+        <v>0.3491781549808228</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1703551883486526</v>
+        <v>-0.1613706872042682</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.09326324501634296</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9227334085724592</v>
+        <v>0.9078667979717742</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3279178787094145</v>
+        <v>0.3238962598544912</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1976297916825509</v>
+        <v>-0.191181035342582</v>
       </c>
     </row>
   </sheetData>
